--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2643312101910828</v>
+        <v>0.3890675241157556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3593073593073593</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3045871559633027</v>
+        <v>0.4464944649446494</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005256648113790973</v>
+        <v>0.1897359494762092</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2735849056603774</v>
+        <v>0.4859437751004016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3169398907103825</v>
+        <v>0.5041666666666668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003017184835366653</v>
+        <v>0.376604636344896</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.5182186234817814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.5541125541125541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2127659574468085</v>
+        <v>0.5355648535564854</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08281329060549841</v>
+        <v>0.451115983583516</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2056737588652482</v>
+        <v>0.5055762081784386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2510822510822511</v>
+        <v>0.5887445887445888</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2261208576998051</v>
+        <v>0.5440000000000002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2032938076416337</v>
+        <v>0.4527573875399962</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.6455696202531646</v>
       </c>
       <c r="C6" t="n">
-        <v>0.208695652173913</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3453237410071943</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7058912102390362</v>
+        <v>0.778411443628835</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3871795134048801</v>
+        <v>0.5088751502259083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2867607754564276</v>
+        <v>0.5267908902691512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2811475205654986</v>
+        <v>0.511199836208818</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2000544282870652</v>
+        <v>0.4497250801146905</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
+++ b/mbs-perturbation/greedy/svm/smote/greedy-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3890675241157556</v>
+        <v>0.359504132231405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4182692307692308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4464944649446494</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1897359494762092</v>
+        <v>0.2664802144970414</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4859437751004016</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.4278846153846154</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5041666666666668</v>
+        <v>0.3819742489270386</v>
       </c>
       <c r="E3" t="n">
-        <v>0.376604636344896</v>
+        <v>0.1877773668639053</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5182186234817814</v>
+        <v>0.5506329113924051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5541125541125541</v>
+        <v>0.4182692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5355648535564854</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="E4" t="n">
-        <v>0.451115983583516</v>
+        <v>0.4516110392011835</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5055762081784386</v>
+        <v>0.5620437956204379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5887445887445888</v>
+        <v>0.3701923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5440000000000002</v>
+        <v>0.4463768115942029</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4527573875399962</v>
+        <v>0.4564302884615384</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6455696202531646</v>
+        <v>0.3964912280701754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4434782608695652</v>
+        <v>0.5432692307692307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5257731958762887</v>
+        <v>0.4584178498985801</v>
       </c>
       <c r="E6" t="n">
-        <v>0.778411443628835</v>
+        <v>0.2500924556213018</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5088751502259083</v>
+        <v>0.4427266615249001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5267908902691512</v>
+        <v>0.4355769230769231</v>
       </c>
       <c r="D7" t="n">
-        <v>0.511199836208818</v>
+        <v>0.4297690826304124</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4497250801146905</v>
+        <v>0.3224782729289941</v>
       </c>
     </row>
   </sheetData>
